--- a/Humana_Code/OUDTBillingCodes_1_16_2023.xlsx
+++ b/Humana_Code/OUDTBillingCodes_1_16_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\Insurance_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\Insurance_Data_TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB06EB2F-0631-4208-A5CF-1F3D8BEA9F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5F7F2-7F30-466E-B79C-77BE2E3BB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="18820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="418">
   <si>
     <t>Opioid Use Disorder Treatment Medical Billing Codes</t>
   </si>
@@ -1288,6 +1288,9 @@
   </si>
   <si>
     <t>T2048</t>
+  </si>
+  <si>
+    <t>['90832','90834','G1028','G2067','G2068','G2069','G2070','G2071','G2072','G2073','G2074','G2075','G2076','G2077','G2078','G2079','G2080','G2081','G2086','G2087','G2088','G2215','G2216','H0020','H0001','H0002','H0003','H0004','H0005','H0006','H0007','H0008','H0009','H0010','H0011','H0012','H0013','H0014','H0015','H0016','H0017','H0018','H0019','H0021','H0022','H0023','H0024','H0025','H0026','H0027','H0028','H0029','H0030','H0031','H0032','H0033','H0034','H0035','H0036','H0037','H0038','H0039','H0040','H0041','H0042','H0043','H0044','H0045','H0046','H0047','H0048','H0049','H0050','H1000','H1001','H1002','H1003','H1004','H1005','H1010','H1011','H2000','H2001','H2010','H2011','H2012','H2013','H2014','H2015','H2016','H2017','H2018','H2019','H2020','H2021','H2022','H2023','H2024','H2025','H2026','H2027','H2028','H2029','H2030','H2031','H2032','H2033','H2034','H2035','H2036','H2037','J2315','T1002','T1006','T1007','T1012','T1016','T2048','90791','90837','90839','90840','90845','90846','90847','90853','90801','90802','90804','90806','90808','90810','90812','90816','90818','90821','90823','90826','90828','90857',]</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3540,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CJ17" sqref="CJ17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3553,12 +3556,12 @@
         <v>90832</v>
       </c>
       <c r="C1" t="str">
-        <f>_xlfn.CONCAT(B1,",")</f>
-        <v>90832,</v>
+        <f>_xlfn.CONCAT("'",B1,"'",",")</f>
+        <v>'90832',</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT("[",C1:C140,"]")</f>
-        <v>[90832,90834,G1028,G2067,G2068,G2069,G2070,G2071,G2072,G2073,G2074,G2075,G2076,G2077,G2078,G2079,G2080,G2081,G2086,G2087,G2088,G2215,G2216,H0020,H0001,H0002,H0003,H0004,H0005,H0006,H0007,H0008,H0009,H0010,H0011,H0012,H0013,H0014,H0015,H0016,H0017,H0018,H0019,H0021,H0022,H0023,H0024,H0025,H0026,H0027,H0028,H0029,H0030,H0031,H0032,H0033,H0034,H0035,H0036,H0037,H0038,H0039,H0040,H0041,H0042,H0043,H0044,H0045,H0046,H0047,H0048,H0049,H0050,H1000,H1001,H1002,H1003,H1004,H1005,H1010,H1011,H2000,H2001,H2010,H2011,H2012,H2013,H2014,H2015,H2016,H2017,H2018,H2019,H2020,H2021,H2022,H2023,H2024,H2025,H2026,H2027,H2028,H2029,H2030,H2031,H2032,H2033,H2034,H2035,H2036,H2037,J2315,T1002,T1006,T1007,T1012,T1016,T2048,90791,90837,90839,90840,90845,90846,90847,90853,90801,90802,90804,90806,90808,90810,90812,90816,90818,90821,90823,90826,90828,90857]</v>
+        <v>['90832','90834','G1028','G2067','G2068','G2069','G2070','G2071','G2072','G2073','G2074','G2075','G2076','G2077','G2078','G2079','G2080','G2081','G2086','G2087','G2088','G2215','G2216','H0020','H0001','H0002','H0003','H0004','H0005','H0006','H0007','H0008','H0009','H0010','H0011','H0012','H0013','H0014','H0015','H0016','H0017','H0018','H0019','H0021','H0022','H0023','H0024','H0025','H0026','H0027','H0028','H0029','H0030','H0031','H0032','H0033','H0034','H0035','H0036','H0037','H0038','H0039','H0040','H0041','H0042','H0043','H0044','H0045','H0046','H0047','H0048','H0049','H0050','H1000','H1001','H1002','H1003','H1004','H1005','H1010','H1011','H2000','H2001','H2010','H2011','H2012','H2013','H2014','H2015','H2016','H2017','H2018','H2019','H2020','H2021','H2022','H2023','H2024','H2025','H2026','H2027','H2028','H2029','H2030','H2031','H2032','H2033','H2034','H2035','H2036','H2037','J2315','T1002','T1006','T1007','T1012','T1016','T2048','90791','90837','90839','90840','90845','90846','90847','90853','90801','90802','90804','90806','90808','90810','90812','90816','90818','90821','90823','90826','90828','90857',]</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3569,8 +3572,8 @@
         <v>90834</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT(B2,",")</f>
-        <v>90834,</v>
+        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT("'",B2,"'",",")</f>
+        <v>'90834',</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3582,7 +3585,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>G1028,</v>
+        <v>'G1028',</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3594,7 +3597,10 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>G2067,</v>
+        <v>'G2067',</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3606,7 +3612,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>G2068,</v>
+        <v>'G2068',</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3618,7 +3624,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>G2069,</v>
+        <v>'G2069',</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3630,7 +3636,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>G2070,</v>
+        <v>'G2070',</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3642,7 +3648,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>G2071,</v>
+        <v>'G2071',</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>G2072,</v>
+        <v>'G2072',</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3666,7 +3672,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>G2073,</v>
+        <v>'G2073',</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3678,7 +3684,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>G2074,</v>
+        <v>'G2074',</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3690,7 +3696,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>G2075,</v>
+        <v>'G2075',</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3702,7 +3708,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>G2076,</v>
+        <v>'G2076',</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3714,7 +3720,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>G2077,</v>
+        <v>'G2077',</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3726,7 +3732,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>G2078,</v>
+        <v>'G2078',</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3738,7 +3744,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>G2079,</v>
+        <v>'G2079',</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3750,7 +3756,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>G2080,</v>
+        <v>'G2080',</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3762,7 +3768,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>G2081,</v>
+        <v>'G2081',</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3774,7 +3780,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>G2086,</v>
+        <v>'G2086',</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3786,7 +3792,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>G2087,</v>
+        <v>'G2087',</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3798,7 +3804,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>G2088,</v>
+        <v>'G2088',</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3810,7 +3816,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>G2215,</v>
+        <v>'G2215',</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3822,7 +3828,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>G2216,</v>
+        <v>'G2216',</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3834,7 +3840,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>H0020,</v>
+        <v>'H0020',</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3846,7 +3852,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>H0001,</v>
+        <v>'H0001',</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3858,7 +3864,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>H0002,</v>
+        <v>'H0002',</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3870,7 +3876,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>H0003,</v>
+        <v>'H0003',</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3882,7 +3888,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>H0004,</v>
+        <v>'H0004',</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3894,7 +3900,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>H0005,</v>
+        <v>'H0005',</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3906,7 +3912,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>H0006,</v>
+        <v>'H0006',</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3918,7 +3924,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>H0007,</v>
+        <v>'H0007',</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3930,7 +3936,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>H0008,</v>
+        <v>'H0008',</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3942,7 +3948,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>H0009,</v>
+        <v>'H0009',</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3954,7 +3960,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>H0010,</v>
+        <v>'H0010',</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3966,7 +3972,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>H0011,</v>
+        <v>'H0011',</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3978,7 +3984,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>H0012,</v>
+        <v>'H0012',</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3990,7 +3996,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>H0013,</v>
+        <v>'H0013',</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4002,7 +4008,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>H0014,</v>
+        <v>'H0014',</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4014,7 +4020,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>H0015,</v>
+        <v>'H0015',</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4026,7 +4032,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>H0016,</v>
+        <v>'H0016',</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4038,7 +4044,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>H0017,</v>
+        <v>'H0017',</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4050,7 +4056,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>H0018,</v>
+        <v>'H0018',</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4062,7 +4068,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>H0019,</v>
+        <v>'H0019',</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4074,7 +4080,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>H0021,</v>
+        <v>'H0021',</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4086,7 +4092,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>H0022,</v>
+        <v>'H0022',</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4098,7 +4104,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>H0023,</v>
+        <v>'H0023',</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4110,7 +4116,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>H0024,</v>
+        <v>'H0024',</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4122,7 +4128,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>H0025,</v>
+        <v>'H0025',</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4134,7 +4140,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>H0026,</v>
+        <v>'H0026',</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4146,7 +4152,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>H0027,</v>
+        <v>'H0027',</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4158,7 +4164,7 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>H0028,</v>
+        <v>'H0028',</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4170,7 +4176,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>H0029,</v>
+        <v>'H0029',</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4182,7 +4188,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>H0030,</v>
+        <v>'H0030',</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4194,7 +4200,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>H0031,</v>
+        <v>'H0031',</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4206,7 +4212,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>H0032,</v>
+        <v>'H0032',</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4218,7 +4224,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>H0033,</v>
+        <v>'H0033',</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4230,7 +4236,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>H0034,</v>
+        <v>'H0034',</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4242,7 +4248,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>H0035,</v>
+        <v>'H0035',</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4254,7 +4260,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>H0036,</v>
+        <v>'H0036',</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4266,7 +4272,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>H0037,</v>
+        <v>'H0037',</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4278,7 +4284,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>H0038,</v>
+        <v>'H0038',</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4290,7 +4296,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>H0039,</v>
+        <v>'H0039',</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4302,7 +4308,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>H0040,</v>
+        <v>'H0040',</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4314,7 +4320,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>H0041,</v>
+        <v>'H0041',</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4326,7 +4332,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>H0042,</v>
+        <v>'H0042',</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4337,8 +4343,8 @@
         <v>364</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C129" si="1">_xlfn.CONCAT(B66,",")</f>
-        <v>H0043,</v>
+        <f t="shared" ref="C66:C129" si="1">_xlfn.CONCAT("'",B66,"'",",")</f>
+        <v>'H0043',</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4350,7 +4356,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>H0044,</v>
+        <v>'H0044',</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4362,7 +4368,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>H0045,</v>
+        <v>'H0045',</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4374,7 +4380,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>H0046,</v>
+        <v>'H0046',</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4386,7 +4392,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>H0047,</v>
+        <v>'H0047',</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4398,7 +4404,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>H0048,</v>
+        <v>'H0048',</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4410,7 +4416,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>H0049,</v>
+        <v>'H0049',</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4422,7 +4428,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>H0050,</v>
+        <v>'H0050',</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4434,7 +4440,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>H1000,</v>
+        <v>'H1000',</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4446,7 +4452,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>H1001,</v>
+        <v>'H1001',</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4458,7 +4464,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>H1002,</v>
+        <v>'H1002',</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4470,7 +4476,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
-        <v>H1003,</v>
+        <v>'H1003',</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4482,7 +4488,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>H1004,</v>
+        <v>'H1004',</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4494,7 +4500,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
-        <v>H1005,</v>
+        <v>'H1005',</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4506,7 +4512,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>H1010,</v>
+        <v>'H1010',</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4518,7 +4524,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
-        <v>H1011,</v>
+        <v>'H1011',</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4530,7 +4536,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
-        <v>H2000,</v>
+        <v>'H2000',</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4542,7 +4548,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
-        <v>H2001,</v>
+        <v>'H2001',</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4554,7 +4560,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
-        <v>H2010,</v>
+        <v>'H2010',</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4566,7 +4572,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>H2011,</v>
+        <v>'H2011',</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4578,7 +4584,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>H2012,</v>
+        <v>'H2012',</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4590,7 +4596,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
-        <v>H2013,</v>
+        <v>'H2013',</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4602,7 +4608,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
-        <v>H2014,</v>
+        <v>'H2014',</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4614,7 +4620,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
-        <v>H2015,</v>
+        <v>'H2015',</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4626,7 +4632,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
-        <v>H2016,</v>
+        <v>'H2016',</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4638,7 +4644,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>H2017,</v>
+        <v>'H2017',</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4650,7 +4656,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>H2018,</v>
+        <v>'H2018',</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4662,7 +4668,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>H2019,</v>
+        <v>'H2019',</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4674,7 +4680,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>H2020,</v>
+        <v>'H2020',</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4686,7 +4692,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>H2021,</v>
+        <v>'H2021',</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4698,7 +4704,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>H2022,</v>
+        <v>'H2022',</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4710,7 +4716,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
-        <v>H2023,</v>
+        <v>'H2023',</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4722,7 +4728,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
-        <v>H2024,</v>
+        <v>'H2024',</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4734,7 +4740,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
-        <v>H2025,</v>
+        <v>'H2025',</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4746,7 +4752,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
-        <v>H2026,</v>
+        <v>'H2026',</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4758,7 +4764,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
-        <v>H2027,</v>
+        <v>'H2027',</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4770,7 +4776,7 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
-        <v>H2028,</v>
+        <v>'H2028',</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4782,7 +4788,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
-        <v>H2029,</v>
+        <v>'H2029',</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4794,7 +4800,7 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
-        <v>H2030,</v>
+        <v>'H2030',</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4806,7 +4812,7 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
-        <v>H2031,</v>
+        <v>'H2031',</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4818,7 +4824,7 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
-        <v>H2032,</v>
+        <v>'H2032',</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4830,7 +4836,7 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
-        <v>H2033,</v>
+        <v>'H2033',</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4842,7 +4848,7 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
-        <v>H2034,</v>
+        <v>'H2034',</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4854,7 +4860,7 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
-        <v>H2035,</v>
+        <v>'H2035',</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4866,7 +4872,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
-        <v>H2036,</v>
+        <v>'H2036',</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4878,7 +4884,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
-        <v>H2037,</v>
+        <v>'H2037',</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4890,7 +4896,7 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
-        <v>J2315,</v>
+        <v>'J2315',</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4902,7 +4908,7 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
-        <v>T1002,</v>
+        <v>'T1002',</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4914,7 +4920,7 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
-        <v>T1006,</v>
+        <v>'T1006',</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4926,7 +4932,7 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
-        <v>T1007,</v>
+        <v>'T1007',</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4938,7 +4944,7 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
-        <v>T1012,</v>
+        <v>'T1012',</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4950,7 +4956,7 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
-        <v>T1016,</v>
+        <v>'T1016',</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4962,7 +4968,7 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
-        <v>T2048,</v>
+        <v>'T2048',</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4974,7 +4980,7 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
-        <v>90791,</v>
+        <v>'90791',</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4986,7 +4992,7 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
-        <v>90837,</v>
+        <v>'90837',</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4998,7 +5004,7 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
-        <v>90839,</v>
+        <v>'90839',</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5010,7 +5016,7 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
-        <v>90840,</v>
+        <v>'90840',</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5022,7 +5028,7 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
-        <v>90845,</v>
+        <v>'90845',</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5034,7 +5040,7 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
-        <v>90846,</v>
+        <v>'90846',</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5046,7 +5052,7 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
-        <v>90847,</v>
+        <v>'90847',</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5058,7 +5064,7 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
-        <v>90853,</v>
+        <v>'90853',</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5070,7 +5076,7 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
-        <v>90801,</v>
+        <v>'90801',</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5082,7 +5088,7 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
-        <v>90802,</v>
+        <v>'90802',</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5094,7 +5100,7 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
-        <v>90804,</v>
+        <v>'90804',</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5105,8 +5111,8 @@
         <v>90806</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" ref="C130:C140" si="2">_xlfn.CONCAT(B130,",")</f>
-        <v>90806,</v>
+        <f t="shared" ref="C130:C140" si="2">_xlfn.CONCAT("'",B130,"'",",")</f>
+        <v>'90806',</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5118,7 +5124,7 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" si="2"/>
-        <v>90808,</v>
+        <v>'90808',</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5130,7 +5136,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
-        <v>90810,</v>
+        <v>'90810',</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5142,7 +5148,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
-        <v>90812,</v>
+        <v>'90812',</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5154,7 +5160,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
-        <v>90816,</v>
+        <v>'90816',</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5166,7 +5172,7 @@
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
-        <v>90818,</v>
+        <v>'90818',</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5178,7 +5184,7 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
-        <v>90821,</v>
+        <v>'90821',</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5190,7 +5196,7 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
-        <v>90823,</v>
+        <v>'90823',</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5202,7 +5208,7 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
-        <v>90826,</v>
+        <v>'90826',</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5214,7 +5220,7 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
-        <v>90828,</v>
+        <v>'90828',</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5224,8 +5230,9 @@
       <c r="B140">
         <v>90857</v>
       </c>
-      <c r="C140">
-        <v>90857</v>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>'90857',</v>
       </c>
     </row>
   </sheetData>
